--- a/Excel US Bank holidays (1).xlsx
+++ b/Excel US Bank holidays (1).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gloria\Documents\Loyola\GB730\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aprilcrompton/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12E8DED-90A8-5548-ADCC-D43879D74971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="11600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="US Bank holidays" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="11">
   <si>
     <t>New Year Day</t>
   </si>
@@ -50,11 +51,14 @@
   <si>
     <t>Christmas Day</t>
   </si>
+  <si>
+    <t>Martin Luther King Jr's Celebrated Birthday</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -855,19 +859,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="37.42578125" customWidth="1"/>
+    <col min="1" max="3" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -878,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -886,10 +890,10 @@
         <v>40924</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -900,7 +904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -911,7 +915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -922,7 +926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -933,7 +937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -944,7 +948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -955,7 +959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -966,7 +970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -977,7 +981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -988,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -999,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1010,7 +1014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1021,7 +1025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -1032,7 +1036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1043,7 +1047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -1054,7 +1058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1065,7 +1069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>19</v>
       </c>
@@ -1076,7 +1080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -1087,7 +1091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -1098,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -1109,7 +1113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -1120,7 +1124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -1131,7 +1135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -1142,7 +1146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -1153,7 +1157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -1164,7 +1168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -1175,7 +1179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -1186,7 +1190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -1197,7 +1201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -1208,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -1219,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -1230,7 +1234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -1241,7 +1245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -1252,7 +1256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -1263,7 +1267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -1274,7 +1278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -1285,7 +1289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -1296,7 +1300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -1307,7 +1311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41</v>
       </c>
@@ -1318,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>42</v>
       </c>
@@ -1329,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>43</v>
       </c>
@@ -1340,7 +1344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>44</v>
       </c>
@@ -1351,7 +1355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>45</v>
       </c>
@@ -1362,7 +1366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>46</v>
       </c>
@@ -1373,7 +1377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>47</v>
       </c>
@@ -1384,7 +1388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>48</v>
       </c>
@@ -1395,7 +1399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>49</v>
       </c>
@@ -1406,7 +1410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -1417,7 +1421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>51</v>
       </c>
@@ -1428,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>52</v>
       </c>
@@ -1439,7 +1443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>53</v>
       </c>
@@ -1450,7 +1454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -1461,7 +1465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -1472,7 +1476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>56</v>
       </c>
@@ -1483,7 +1487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>57</v>
       </c>
@@ -1494,7 +1498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>58</v>
       </c>
@@ -1505,7 +1509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>59</v>
       </c>
@@ -1516,7 +1520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>60</v>
       </c>
@@ -1527,7 +1531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>61</v>
       </c>
@@ -1538,7 +1542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>62</v>
       </c>
@@ -1549,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>63</v>
       </c>
@@ -1560,7 +1564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>64</v>
       </c>
@@ -1571,7 +1575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>65</v>
       </c>
@@ -1582,7 +1586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -1593,7 +1597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -1604,7 +1608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -1615,7 +1619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -1626,7 +1630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -1637,7 +1641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -1648,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -1659,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -1670,7 +1674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -1681,7 +1685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -1692,7 +1696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -1703,7 +1707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -1714,7 +1718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -1725,7 +1729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -1736,7 +1740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -1747,7 +1751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -1758,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>82</v>
       </c>
@@ -1769,7 +1773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>83</v>
       </c>
@@ -1780,7 +1784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>84</v>
       </c>
@@ -1791,7 +1795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>85</v>
       </c>
@@ -1802,7 +1806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>86</v>
       </c>
@@ -1813,7 +1817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>87</v>
       </c>
@@ -1824,7 +1828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>88</v>
       </c>
@@ -1835,7 +1839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>89</v>
       </c>
@@ -1846,7 +1850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>90</v>
       </c>

--- a/Excel US Bank holidays (1).xlsx
+++ b/Excel US Bank holidays (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aprilcrompton/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12E8DED-90A8-5548-ADCC-D43879D74971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B98AD9B-D12B-E34A-881A-33770A43CDF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="11600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="12">
   <si>
     <t>New Year Day</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Martin Luther King Jr's Celebrated Birthday</t>
+  </si>
+  <si>
+    <t>Presidents Day (George Washingtons Celebrated Birthday)</t>
   </si>
 </sst>
 </file>
@@ -863,7 +866,7 @@
   <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -901,7 +904,7 @@
         <v>40959</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
